--- a/DbLayouts/L3-帳務作業/LoanNotYet.xlsx
+++ b/DbLayouts/L3-帳務作業/LoanNotYet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
   <si>
     <t>備註說明</t>
   </si>
@@ -136,10 +136,6 @@
   </si>
   <si>
     <t>CustNo,FacmNo,NotYetCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YetDate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -278,6 +274,22 @@
   </si>
   <si>
     <t>CustNo = ,AND FacmNo &gt;= ,AND FacmNo &lt;= ,AND YetDate&gt;= ,AND YetDate&lt;= ,AND CloseDate&gt;= ,AND CloseDate&lt;=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>allNoClose</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YetDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CloseDate = ,AND YetDate &lt;=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo asc,FacmNo asc,YetDate asc</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -325,23 +337,23 @@
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="細明體"/>
-      <family val="3"/>
+      <color indexed="8"/>
+      <name val="標楷體"/>
+      <family val="4"/>
       <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
       <charset val="136"/>
-      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="3">
@@ -457,104 +469,104 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -863,336 +875,336 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="26" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="7" customWidth="1"/>
-    <col min="5" max="6" width="4.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="39.21875" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="4"/>
+    <col min="1" max="1" width="4.88671875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" style="27" customWidth="1"/>
+    <col min="3" max="3" width="26" style="30" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="33" customWidth="1"/>
+    <col min="5" max="6" width="4.6640625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="39.21875" style="27" customWidth="1"/>
+    <col min="8" max="16384" width="21.44140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="14" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="25" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+    </row>
+    <row r="8" spans="1:7" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="25" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9" s="27">
         <v>1</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D9" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="27">
         <v>7</v>
       </c>
-      <c r="G9" s="15"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="27">
         <f>A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D10" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="27">
         <v>3</v>
       </c>
-      <c r="G10" s="15"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="27">
         <f t="shared" ref="A11:A19" si="0">A10+1</f>
         <v>3</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="D11" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="27">
         <v>2</v>
       </c>
-      <c r="G11" s="26" t="s">
-        <v>49</v>
+      <c r="G11" s="32" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="12" t="s">
+      <c r="B12" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="D12" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="27">
         <v>40</v>
       </c>
-      <c r="G12" s="15"/>
+      <c r="G12" s="29"/>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13" s="27">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="D13" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="27">
         <v>8</v>
       </c>
-      <c r="G13" s="15"/>
+      <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="27">
         <f>A13+1</f>
         <v>6</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="12" t="s">
+      <c r="B14" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="27">
+        <v>8</v>
+      </c>
+      <c r="G14" s="29"/>
+    </row>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="27">
+        <v>7</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="27">
+        <v>80</v>
+      </c>
+      <c r="G15" s="29"/>
+    </row>
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="27">
+        <v>8</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="28"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="27">
+        <v>9</v>
+      </c>
+      <c r="B17" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="3">
-        <v>8</v>
-      </c>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>7</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="3">
-        <v>80</v>
-      </c>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>8</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>9</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="D17" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="27">
         <v>6</v>
       </c>
-      <c r="G17" s="14"/>
+      <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="A18" s="27">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="14"/>
+      <c r="D18" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="A19" s="27">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="3">
+      <c r="E19" s="27">
         <v>6</v>
       </c>
-      <c r="G19" s="14"/>
+      <c r="G19" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1212,60 +1224,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="71.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="39.88671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>57</v>
+      <c r="B5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
